--- a/excel/collective/zestawy_dla_uczniow/zestaw_002.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_002.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>ZESTAW ZADAŃ NR 2 - CZĘŚĆ 1</t>
   </si>
@@ -61,526 +61,502 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Hanna Piekarska</t>
-  </si>
-  <si>
-    <t>Filip Kowalczyk</t>
-  </si>
-  <si>
-    <t>Amelia Bednarska</t>
+    <t>Emilia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Mikołaj Jankowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Wiśniewski</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>Zuzanna Wójcik</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 2 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>2,20</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>23,90</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,70</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>4,40</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>3,80</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>14,00</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 2 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>21,88</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>9,50</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>10,80</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>6,80</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>14,02</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>7,62</t>
+  </si>
+  <si>
+    <t>4,24</t>
+  </si>
+  <si>
+    <t>17,14</t>
+  </si>
+  <si>
+    <t>27,02</t>
+  </si>
+  <si>
+    <t>15,69</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>10,37</t>
+  </si>
+  <si>
+    <t>18,23</t>
+  </si>
+  <si>
+    <t>20,49</t>
+  </si>
+  <si>
+    <t>10,13</t>
+  </si>
+  <si>
+    <t>30,03</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy pasek?</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Krawczyk</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Mikołaj Lewandowski</t>
+  </si>
+  <si>
+    <t>27.12.1977</t>
+  </si>
+  <si>
+    <t>5 946,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Mazur</t>
+  </si>
+  <si>
+    <t>08.12.1986</t>
+  </si>
+  <si>
+    <t>2 881,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Kowalski</t>
+  </si>
+  <si>
+    <t>10.07.1999</t>
+  </si>
+  <si>
+    <t>8 100,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Kubiak</t>
+  </si>
+  <si>
+    <t>15.11.1984</t>
+  </si>
+  <si>
+    <t>3 540,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Zawadzka</t>
+  </si>
+  <si>
+    <t>08.04.1988</t>
+  </si>
+  <si>
+    <t>14 271,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Zawadzka</t>
+  </si>
+  <si>
+    <t>21.02.1989</t>
+  </si>
+  <si>
+    <t>11 123,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Zawadzka</t>
+  </si>
+  <si>
+    <t>06.02.1984</t>
+  </si>
+  <si>
+    <t>12 167,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalski</t>
+  </si>
+  <si>
+    <t>18.04.1999</t>
+  </si>
+  <si>
+    <t>6 392,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Maciejewska</t>
+  </si>
+  <si>
+    <t>10.11.2000</t>
+  </si>
+  <si>
+    <t>5 214,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Nowak</t>
+  </si>
+  <si>
+    <t>02.10.1998</t>
+  </si>
+  <si>
+    <t>11 139,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Urbaniak</t>
+  </si>
+  <si>
+    <t>16.02.1979</t>
+  </si>
+  <si>
+    <t>6 578,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Rogalska</t>
+  </si>
+  <si>
+    <t>22.11.1996</t>
+  </si>
+  <si>
+    <t>11 380,00 zł</t>
   </si>
   <si>
     <t>Szymon Szymański</t>
   </si>
   <si>
-    <t>Natalia Urbaniak</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 2 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>4,60</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,70</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,20</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>6,60</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>10,10</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 2 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>26,28</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>19,13</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>9,26</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>10,91</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>30,64</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>1,97</t>
-  </si>
-  <si>
-    <t>14,95</t>
-  </si>
-  <si>
-    <t>25,03</t>
-  </si>
-  <si>
-    <t>11,86</t>
-  </si>
-  <si>
-    <t>22,89</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>19,35</t>
-  </si>
-  <si>
-    <t>14,27</t>
-  </si>
-  <si>
-    <t>9,98</t>
-  </si>
-  <si>
-    <t>29,28</t>
-  </si>
-  <si>
-    <t>6,19</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Mazur</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Amelia Malinowska</t>
-  </si>
-  <si>
-    <t>25.02.1999</t>
-  </si>
-  <si>
-    <t>9 299,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Urbaniak</t>
-  </si>
-  <si>
-    <t>22.01.1978</t>
-  </si>
-  <si>
-    <t>5 738,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Rogalska</t>
-  </si>
-  <si>
-    <t>24.02.1980</t>
-  </si>
-  <si>
-    <t>7 550,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Krawczyk</t>
-  </si>
-  <si>
-    <t>07.05.1998</t>
-  </si>
-  <si>
-    <t>5 846,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Kowalczyk</t>
-  </si>
-  <si>
-    <t>21.02.1981</t>
-  </si>
-  <si>
-    <t>13 615,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Maciejewska</t>
-  </si>
-  <si>
-    <t>16.06.1988</t>
-  </si>
-  <si>
-    <t>4 135,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Bednarska</t>
-  </si>
-  <si>
-    <t>19.03.1980</t>
-  </si>
-  <si>
-    <t>5 812,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Dąbrowski</t>
-  </si>
-  <si>
-    <t>27.07.2004</t>
-  </si>
-  <si>
-    <t>14 965,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Grabowski</t>
-  </si>
-  <si>
-    <t>11.01.1998</t>
-  </si>
-  <si>
-    <t>13 595,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kamiński</t>
-  </si>
-  <si>
-    <t>09.01.1997</t>
-  </si>
-  <si>
-    <t>3 984,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Mazur</t>
-  </si>
-  <si>
-    <t>27.07.1996</t>
-  </si>
-  <si>
-    <t>11 709,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Sadowska</t>
-  </si>
-  <si>
-    <t>24.02.2000</t>
-  </si>
-  <si>
-    <t>11 335,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Malinowska</t>
-  </si>
-  <si>
-    <t>14.01.1998</t>
-  </si>
-  <si>
-    <t>11 765,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Urbaniak</t>
-  </si>
-  <si>
-    <t>24.06.1988</t>
-  </si>
-  <si>
-    <t>7 313,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Zawadzka</t>
-  </si>
-  <si>
-    <t>18.08.1986</t>
-  </si>
-  <si>
-    <t>14 391,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Kubiak</t>
-  </si>
-  <si>
-    <t>17.09.1989</t>
-  </si>
-  <si>
-    <t>8 008,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Sadowska</t>
-  </si>
-  <si>
-    <t>08.05.1975</t>
-  </si>
-  <si>
-    <t>7 198,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Zawadzka</t>
-  </si>
-  <si>
-    <t>16.12.1997</t>
-  </si>
-  <si>
-    <t>6 195,00 zł</t>
+    <t>28.05.1996</t>
+  </si>
+  <si>
+    <t>12 910,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Wójcik</t>
+  </si>
+  <si>
+    <t>17.10.1994</t>
+  </si>
+  <si>
+    <t>9 118,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Jaworska</t>
+  </si>
+  <si>
+    <t>23.01.1991</t>
+  </si>
+  <si>
+    <t>4 158,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kwiatkowski</t>
+  </si>
+  <si>
+    <t>27.07.1978</t>
+  </si>
+  <si>
+    <t>7 194,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -652,328 +628,301 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 388,00 zł</t>
-  </si>
-  <si>
-    <t>1 624,00 zł</t>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>763,00 zł</t>
+  </si>
+  <si>
+    <t>839,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 205,00 zł</t>
+  </si>
+  <si>
+    <t>1 663,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 108,00 zł</t>
+  </si>
+  <si>
+    <t>1 440,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 052,00 zł</t>
+  </si>
+  <si>
+    <t>1 273,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>753,00 zł</t>
+  </si>
+  <si>
+    <t>881,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>592,00 zł</t>
+  </si>
+  <si>
+    <t>764,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>676,00 zł</t>
+  </si>
+  <si>
+    <t>757,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>1 408,00 zł</t>
+  </si>
+  <si>
+    <t>1 844,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 338,00 zł</t>
+  </si>
+  <si>
+    <t>1 699,00 zł</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>609,00 zł</t>
+  </si>
+  <si>
+    <t>792,00 zł</t>
   </si>
   <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>1 336,00 zł</t>
+  </si>
+  <si>
+    <t>1 576,00 zł</t>
+  </si>
+  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 342,00 zł</t>
-  </si>
-  <si>
-    <t>1 785,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 152,00 zł</t>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 358,00 zł</t>
+  </si>
+  <si>
+    <t>1 847,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 248,00 zł</t>
+  </si>
+  <si>
+    <t>1 448,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 280,00 zł</t>
+  </si>
+  <si>
+    <t>1 485,00 zł</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 141,00 zł</t>
+  </si>
+  <si>
+    <t>1 518,00 zł</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 277,00 zł</t>
+  </si>
+  <si>
+    <t>1 673,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 170,00 zł</t>
   </si>
   <si>
     <t>1 509,00 zł</t>
   </si>
   <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 297,00 zł</t>
-  </si>
-  <si>
-    <t>1 595,00 zł</t>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>1 727,00 zł</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 296,00 zł</t>
+  </si>
+  <si>
+    <t>1 788,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 452,00 zł</t>
+  </si>
+  <si>
+    <t>1 917,00 zł</t>
+  </si>
+  <si>
+    <t>1 228,00 zł</t>
+  </si>
+  <si>
+    <t>1 609,00 zł</t>
   </si>
   <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
+    <t>1 187,00 zł</t>
+  </si>
+  <si>
+    <t>1 389,00 zł</t>
+  </si>
+  <si>
+    <t>1 278,00 zł</t>
+  </si>
+  <si>
+    <t>1 623,00 zł</t>
+  </si>
+  <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 345,00 zł</t>
-  </si>
-  <si>
-    <t>1 749,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>704,00 zł</t>
-  </si>
-  <si>
-    <t>880,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>830,00 zł</t>
+    <t>Klawiatura mechaniczna</t>
   </si>
   <si>
     <t>1 112,00 zł</t>
   </si>
   <si>
+    <t>1 535,00 zł</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>856,00 zł</t>
+  </si>
+  <si>
+    <t>1 181,00 zł</t>
+  </si>
+  <si>
     <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>738,00 zł</t>
-  </si>
-  <si>
-    <t>908,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 280,00 zł</t>
-  </si>
-  <si>
-    <t>1 741,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>1 017,00 zł</t>
-  </si>
-  <si>
-    <t>1 414,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>891,00 zł</t>
-  </si>
-  <si>
-    <t>1 087,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 336,00 zł</t>
-  </si>
-  <si>
-    <t>1 737,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>708,00 zł</t>
-  </si>
-  <si>
-    <t>843,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>1 216,00 zł</t>
-  </si>
-  <si>
-    <t>1 338,00 zł</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 390,00 zł</t>
-  </si>
-  <si>
-    <t>1 696,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>573,00 zł</t>
-  </si>
-  <si>
-    <t>676,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 168,00 zł</t>
-  </si>
-  <si>
-    <t>1 378,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>1 158,00 zł</t>
-  </si>
-  <si>
-    <t>1 563,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>628,00 zł</t>
-  </si>
-  <si>
-    <t>842,00 zł</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>799,00 zł</t>
-  </si>
-  <si>
-    <t>903,00 zł</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 318,00 zł</t>
-  </si>
-  <si>
-    <t>1 648,00 zł</t>
-  </si>
-  <si>
-    <t>1 458,00 zł</t>
-  </si>
-  <si>
-    <t>1 604,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>1 199,00 zł</t>
-  </si>
-  <si>
-    <t>1 379,00 zł</t>
-  </si>
-  <si>
-    <t>1 311,00 zł</t>
-  </si>
-  <si>
-    <t>1 835,00 zł</t>
-  </si>
-  <si>
-    <t>1 226,00 zł</t>
-  </si>
-  <si>
-    <t>1 545,00 zł</t>
-  </si>
-  <si>
-    <t>1 474,00 zł</t>
-  </si>
-  <si>
-    <t>1 666,00 zł</t>
-  </si>
-  <si>
-    <t>1 429,00 zł</t>
-  </si>
-  <si>
-    <t>1 915,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>1 004,00 zł</t>
-  </si>
-  <si>
-    <t>1 235,00 zł</t>
-  </si>
-  <si>
-    <t>1 193,00 zł</t>
-  </si>
-  <si>
-    <t>1 467,00 zł</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 392,00 zł</t>
-  </si>
-  <si>
-    <t>1 740,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1530,7 +1479,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
@@ -1539,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>6</v>
@@ -1551,19 +1500,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3">
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1572,19 +1521,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1593,13 +1542,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -1614,19 +1563,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1635,10 +1584,10 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
@@ -1647,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1656,19 +1605,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1677,19 +1626,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1698,16 +1647,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
         <v>5</v>
       </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
         <v>6</v>
@@ -1719,10 +1668,10 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
         <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -1731,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1746,10 +1695,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
         <v>6</v>
@@ -1761,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
         <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>5</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
@@ -1895,7 +1844,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1910,7 +1859,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1925,7 +1874,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1940,7 +1889,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1955,7 +1904,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1970,7 +1919,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2087,7 +2036,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2099,7 +2048,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2111,7 +2060,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2123,7 +2072,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2135,7 +2084,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2183,7 +2132,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2195,7 +2144,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2207,7 +2156,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2219,7 +2168,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2231,7 +2180,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2279,7 +2228,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2291,7 +2240,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2303,7 +2252,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2315,7 +2264,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2327,7 +2276,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2470,25 +2419,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6</v>
-      </c>
       <c r="I12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2502,25 +2451,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
         <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2537,22 +2486,22 @@
         <v>6</v>
       </c>
       <c r="E14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2566,25 +2515,25 @@
         <v>113</v>
       </c>
       <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="3">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2598,25 +2547,25 @@
         <v>115</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="3">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
         <v>4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2627,7 +2576,7 @@
         <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -2636,16 +2585,16 @@
         <v>2</v>
       </c>
       <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
         <v>2</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4</v>
       </c>
       <c r="J17" s="3">
         <v>6</v>
@@ -2656,31 +2605,31 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2</v>
       </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
       <c r="I18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2688,28 +2637,28 @@
     <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>2</v>
-      </c>
-      <c r="G19" s="3">
-        <v>6</v>
       </c>
       <c r="H19" s="3">
         <v>6</v>
       </c>
       <c r="I19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3">
         <v>3</v>
@@ -2719,7 +2668,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2735,7 +2684,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2766,10 +2715,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A30" sqref="A30:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2781,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2791,265 +2740,243 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="B30" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B31" s="14" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3067,10 +2994,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49:B53"/>
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3086,7 +3013,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3096,75 +3023,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3172,22 +3099,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3195,22 +3122,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3218,22 +3145,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3241,22 +3168,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3264,22 +3191,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3287,22 +3214,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3310,22 +3237,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3333,22 +3260,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3356,22 +3283,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3379,22 +3306,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3402,22 +3329,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3425,22 +3352,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3448,22 +3375,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3471,22 +3398,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3494,22 +3421,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3517,22 +3444,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3540,22 +3467,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3563,22 +3490,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>276</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3586,22 +3513,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3609,22 +3536,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3632,22 +3559,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3655,22 +3582,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3678,22 +3605,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3701,22 +3628,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3724,182 +3651,67 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>304</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="B47" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>305</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>318</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>319</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>320</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>321</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>322</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>191</v>
+      <c r="B48" s="14" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_002.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_002.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 2 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 2 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,20</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>23,90</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,70</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>4,40</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>3,80</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>14,00</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>21,88</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>9,50</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>10,80</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>6,80</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>14,02</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>7,62</t>
-  </si>
-  <si>
-    <t>4,24</t>
-  </si>
-  <si>
-    <t>17,14</t>
-  </si>
-  <si>
-    <t>27,02</t>
-  </si>
-  <si>
-    <t>15,69</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>10,37</t>
-  </si>
-  <si>
-    <t>18,23</t>
-  </si>
-  <si>
-    <t>20,49</t>
-  </si>
-  <si>
-    <t>10,13</t>
-  </si>
-  <si>
-    <t>30,03</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,144 +343,96 @@
     <t>27.12.1977</t>
   </si>
   <si>
-    <t>5 946,00 zł</t>
-  </si>
-  <si>
     <t>Adam Mazur</t>
   </si>
   <si>
     <t>08.12.1986</t>
   </si>
   <si>
-    <t>2 881,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Kowalski</t>
   </si>
   <si>
     <t>10.07.1999</t>
   </si>
   <si>
-    <t>8 100,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Kubiak</t>
   </si>
   <si>
     <t>15.11.1984</t>
   </si>
   <si>
-    <t>3 540,00 zł</t>
-  </si>
-  <si>
     <t>Lena Zawadzka</t>
   </si>
   <si>
     <t>08.04.1988</t>
   </si>
   <si>
-    <t>14 271,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Zawadzka</t>
   </si>
   <si>
     <t>21.02.1989</t>
   </si>
   <si>
-    <t>11 123,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Zawadzka</t>
   </si>
   <si>
     <t>06.02.1984</t>
   </si>
   <si>
-    <t>12 167,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kowalski</t>
   </si>
   <si>
     <t>18.04.1999</t>
   </si>
   <si>
-    <t>6 392,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Maciejewska</t>
   </si>
   <si>
     <t>10.11.2000</t>
   </si>
   <si>
-    <t>5 214,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Nowak</t>
   </si>
   <si>
     <t>02.10.1998</t>
   </si>
   <si>
-    <t>11 139,00 zł</t>
-  </si>
-  <si>
     <t>Maja Urbaniak</t>
   </si>
   <si>
     <t>16.02.1979</t>
   </si>
   <si>
-    <t>6 578,00 zł</t>
-  </si>
-  <si>
     <t>Anna Rogalska</t>
   </si>
   <si>
     <t>22.11.1996</t>
   </si>
   <si>
-    <t>11 380,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Szymański</t>
   </si>
   <si>
     <t>28.05.1996</t>
   </si>
   <si>
-    <t>12 910,00 zł</t>
-  </si>
-  <si>
     <t>Julia Wójcik</t>
   </si>
   <si>
     <t>17.10.1994</t>
   </si>
   <si>
-    <t>9 118,00 zł</t>
-  </si>
-  <si>
     <t>Julia Jaworska</t>
   </si>
   <si>
     <t>23.01.1991</t>
   </si>
   <si>
-    <t>4 158,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kwiatkowski</t>
   </si>
   <si>
     <t>27.07.1978</t>
   </si>
   <si>
-    <t>7 194,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -571,9 +445,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -634,12 +505,6 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>763,00 zł</t>
-  </si>
-  <si>
-    <t>839,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -652,12 +517,6 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 205,00 zł</t>
-  </si>
-  <si>
-    <t>1 663,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -667,12 +526,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 108,00 zł</t>
-  </si>
-  <si>
-    <t>1 440,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -685,12 +538,6 @@
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 052,00 zł</t>
-  </si>
-  <si>
-    <t>1 273,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -700,24 +547,12 @@
     <t>maj</t>
   </si>
   <si>
-    <t>753,00 zł</t>
-  </si>
-  <si>
-    <t>881,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>592,00 zł</t>
-  </si>
-  <si>
-    <t>764,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -727,69 +562,33 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>676,00 zł</t>
-  </si>
-  <si>
-    <t>757,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>1 408,00 zł</t>
-  </si>
-  <si>
-    <t>1 844,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 338,00 zł</t>
-  </si>
-  <si>
-    <t>1 699,00 zł</t>
-  </si>
-  <si>
     <t>marzec</t>
   </si>
   <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>609,00 zł</t>
-  </si>
-  <si>
-    <t>792,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 336,00 zł</t>
-  </si>
-  <si>
-    <t>1 576,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 358,00 zł</t>
-  </si>
-  <si>
-    <t>1 847,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
@@ -799,127 +598,49 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 248,00 zł</t>
-  </si>
-  <si>
-    <t>1 448,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 280,00 zł</t>
-  </si>
-  <si>
-    <t>1 485,00 zł</t>
-  </si>
-  <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 141,00 zł</t>
-  </si>
-  <si>
-    <t>1 518,00 zł</t>
-  </si>
-  <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 277,00 zł</t>
-  </si>
-  <si>
-    <t>1 673,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 170,00 zł</t>
-  </si>
-  <si>
-    <t>1 509,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
-    <t>1 727,00 zł</t>
-  </si>
-  <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 296,00 zł</t>
-  </si>
-  <si>
-    <t>1 788,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 452,00 zł</t>
-  </si>
-  <si>
-    <t>1 917,00 zł</t>
-  </si>
-  <si>
-    <t>1 228,00 zł</t>
-  </si>
-  <si>
-    <t>1 609,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
-    <t>1 187,00 zł</t>
-  </si>
-  <si>
-    <t>1 389,00 zł</t>
-  </si>
-  <si>
-    <t>1 278,00 zł</t>
-  </si>
-  <si>
-    <t>1 623,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 112,00 zł</t>
-  </si>
-  <si>
-    <t>1 535,00 zł</t>
-  </si>
-  <si>
     <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>856,00 zł</t>
-  </si>
-  <si>
-    <t>1 181,00 zł</t>
   </si>
   <si>
     <t>Michał Jankowski</t>
@@ -944,7 +665,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1001,14 +724,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1019,8 +742,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1051,30 +774,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,7 +1101,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1452,25 +1176,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1493,7 +1217,7 @@
       <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1514,7 +1238,7 @@
       <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1535,7 +1259,7 @@
       <c r="F19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1556,7 +1280,7 @@
       <c r="F20" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1577,7 +1301,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1598,7 +1322,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1619,7 +1343,7 @@
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1640,7 +1364,7 @@
       <c r="F24" s="3">
         <v>4</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1661,7 +1385,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1682,7 +1406,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1703,7 +1427,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1724,27 +1448,17 @@
       <c r="F28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1778,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1798,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1808,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1838,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.2</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>23.9</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.7</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.4</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3.8</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>14</v>
       </c>
       <c r="D18" s="3">
         <v>8</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1963,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1988,113 +1702,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>21.88</v>
       </c>
       <c r="C15" s="3">
         <v>46</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>9.5</v>
       </c>
       <c r="C16" s="3">
         <v>46</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>10.8</v>
       </c>
       <c r="C17" s="3">
         <v>13</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>6.8</v>
       </c>
       <c r="C18" s="3">
         <v>42</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>14.02</v>
       </c>
       <c r="C19" s="3">
         <v>10</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2103,94 +1817,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>7.62</v>
       </c>
       <c r="C24" s="3">
         <v>10</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4.24</v>
       </c>
       <c r="C25" s="3">
         <v>40</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>17.14</v>
       </c>
       <c r="C26" s="3">
         <v>15</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>27.02</v>
       </c>
       <c r="C27" s="3">
         <v>22</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>15.69</v>
       </c>
       <c r="C28" s="3">
         <v>34</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2199,98 +1913,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>10.37</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>18.23</v>
       </c>
       <c r="C34" s="3">
         <v>27</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>20.49</v>
       </c>
       <c r="C35" s="3">
         <v>43</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>10.13</v>
       </c>
       <c r="C36" s="3">
         <v>13</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>30.030000000000001</v>
       </c>
       <c r="C37" s="3">
         <v>11</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2313,7 +2027,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2333,90 +2047,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2439,16 +2153,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2471,16 +2185,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2503,16 +2217,16 @@
       <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2535,16 +2249,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2567,16 +2281,16 @@
       <c r="J16" s="3">
         <v>4</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -2599,16 +2313,16 @@
       <c r="J17" s="3">
         <v>6</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2631,16 +2345,16 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
@@ -2663,40 +2377,40 @@
       <c r="J19" s="3">
         <v>3</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2729,255 +2443,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>5946</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2881</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>8100</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3540</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>14271</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11123</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>12167</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6392</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5214</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11139</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6578</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11380</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>12910</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="7">
+        <v>9118</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>175</v>
+        <v>134</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4158</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>178</v>
+        <v>136</v>
+      </c>
+      <c r="C26" s="7">
+        <v>7194</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>179</v>
+      <c r="A29" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>182</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3012,86 +2720,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>184</v>
+      <c r="A1" s="15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>201</v>
+      <c r="A15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3099,22 +2807,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
+      </c>
+      <c r="D16" s="7">
+        <v>763</v>
+      </c>
+      <c r="E16" s="7">
+        <v>839</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3122,22 +2830,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1205</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1663</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3145,22 +2853,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1108</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1440</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3168,22 +2876,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1052</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1273</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3191,22 +2899,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>227</v>
+        <v>164</v>
+      </c>
+      <c r="D20" s="7">
+        <v>753</v>
+      </c>
+      <c r="E20" s="7">
+        <v>881</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3214,22 +2922,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
+      </c>
+      <c r="D21" s="7">
+        <v>592</v>
+      </c>
+      <c r="E21" s="7">
+        <v>764</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3237,22 +2945,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
+      </c>
+      <c r="D22" s="7">
+        <v>676</v>
+      </c>
+      <c r="E22" s="7">
+        <v>757</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3260,22 +2968,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>239</v>
+        <v>167</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1408</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1844</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3283,22 +2991,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>243</v>
+        <v>182</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1699</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3306,22 +3014,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>247</v>
+        <v>184</v>
+      </c>
+      <c r="D25" s="7">
+        <v>609</v>
+      </c>
+      <c r="E25" s="7">
+        <v>792</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3329,22 +3037,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>251</v>
+        <v>167</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1336</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1576</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3352,22 +3060,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>255</v>
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1358</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1847</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3375,22 +3083,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>260</v>
+        <v>191</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1248</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1448</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3398,22 +3106,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>264</v>
+        <v>193</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1280</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1485</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3421,22 +3129,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>267</v>
+        <v>194</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1141</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1518</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3444,22 +3152,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>270</v>
+        <v>195</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1277</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1673</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3467,22 +3175,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>274</v>
+        <v>197</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1170</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1509</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3490,22 +3198,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>278</v>
+        <v>199</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1404</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1727</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3513,22 +3221,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>281</v>
+        <v>200</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1296</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1788</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3536,22 +3244,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>285</v>
+        <v>202</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1452</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1917</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3559,22 +3267,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>287</v>
+        <v>167</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1228</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1609</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3582,22 +3290,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>290</v>
+        <v>164</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1187</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1389</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3605,22 +3313,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>292</v>
+        <v>199</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1278</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1623</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3628,22 +3336,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>296</v>
+        <v>205</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1112</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1535</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3651,68 +3359,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>299</v>
+        <v>195</v>
+      </c>
+      <c r="D40" s="7">
+        <v>856</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1181</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>179</v>
+      <c r="A43" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>301</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>302</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>303</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>305</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>183</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_002.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_002.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>ZESTAW ZADAŃ NR 2 - CZĘŚĆ 1</t>
   </si>
@@ -61,21 +62,21 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Emilia Kaźmierczak</t>
+    <t>Emilia Piekarska</t>
+  </si>
+  <si>
+    <t>Hanna Sikorska</t>
+  </si>
+  <si>
+    <t>Hanna Rogalska</t>
+  </si>
+  <si>
+    <t>Jakub Mazur</t>
   </si>
   <si>
     <t>Mikołaj Jankowski</t>
   </si>
   <si>
-    <t>Mikołaj Wiśniewski</t>
-  </si>
-  <si>
-    <t>Jan Kaczmarek</t>
-  </si>
-  <si>
-    <t>Zuzanna Wójcik</t>
-  </si>
-  <si>
     <t>ŚREDNIA</t>
   </si>
   <si>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 2 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>Farby plakatowe 12 kolorów</t>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
   </si>
   <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,19 +266,7 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
   </si>
   <si>
     <t>Emilia</t>
@@ -280,30 +275,36 @@
     <t>Bednarska</t>
   </si>
   <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Sadowska</t>
+  </si>
+  <si>
     <t>Anna</t>
   </si>
   <si>
-    <t>Sadowska</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Antoni</t>
   </si>
   <si>
     <t>Krawczyk</t>
   </si>
   <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
     <t>Średnia przedmiotu:</t>
   </si>
   <si>
@@ -337,100 +338,52 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Mikołaj Lewandowski</t>
-  </si>
-  <si>
-    <t>27.12.1977</t>
-  </si>
-  <si>
-    <t>Adam Mazur</t>
-  </si>
-  <si>
-    <t>08.12.1986</t>
-  </si>
-  <si>
-    <t>Szymon Kowalski</t>
-  </si>
-  <si>
-    <t>10.07.1999</t>
-  </si>
-  <si>
-    <t>Zuzanna Kubiak</t>
-  </si>
-  <si>
-    <t>15.11.1984</t>
-  </si>
-  <si>
-    <t>Lena Zawadzka</t>
-  </si>
-  <si>
-    <t>08.04.1988</t>
-  </si>
-  <si>
-    <t>Oliwia Zawadzka</t>
-  </si>
-  <si>
-    <t>21.02.1989</t>
-  </si>
-  <si>
-    <t>Zuzanna Zawadzka</t>
-  </si>
-  <si>
-    <t>06.02.1984</t>
-  </si>
-  <si>
-    <t>Mikołaj Kowalski</t>
-  </si>
-  <si>
-    <t>18.04.1999</t>
-  </si>
-  <si>
-    <t>Zuzanna Maciejewska</t>
-  </si>
-  <si>
-    <t>10.11.2000</t>
-  </si>
-  <si>
-    <t>Szymon Nowak</t>
-  </si>
-  <si>
-    <t>02.10.1998</t>
-  </si>
-  <si>
-    <t>Maja Urbaniak</t>
-  </si>
-  <si>
-    <t>16.02.1979</t>
-  </si>
-  <si>
-    <t>Anna Rogalska</t>
-  </si>
-  <si>
-    <t>22.11.1996</t>
-  </si>
-  <si>
-    <t>Szymon Szymański</t>
-  </si>
-  <si>
-    <t>28.05.1996</t>
-  </si>
-  <si>
-    <t>Julia Wójcik</t>
-  </si>
-  <si>
-    <t>17.10.1994</t>
-  </si>
-  <si>
-    <t>Julia Jaworska</t>
-  </si>
-  <si>
-    <t>23.01.1991</t>
-  </si>
-  <si>
-    <t>Wojciech Kwiatkowski</t>
-  </si>
-  <si>
-    <t>27.07.1978</t>
+    <t>Wojciech Jankowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Jaworska</t>
+  </si>
+  <si>
+    <t>Hanna Kubiak</t>
+  </si>
+  <si>
+    <t>Aleksander Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Maja Wójcik</t>
+  </si>
+  <si>
+    <t>Adam Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Hanna Lis</t>
+  </si>
+  <si>
+    <t>Jan Kozłowski</t>
+  </si>
+  <si>
+    <t>Kacper Szymański</t>
+  </si>
+  <si>
+    <t>Jakub Zieliński</t>
+  </si>
+  <si>
+    <t>Lena Urbaniak</t>
+  </si>
+  <si>
+    <t>Julia Borkowska</t>
+  </si>
+  <si>
+    <t>Szymon Piotrowski</t>
+  </si>
+  <si>
+    <t>Anna Wilk</t>
+  </si>
+  <si>
+    <t>Jakub Kamiński</t>
+  </si>
+  <si>
+    <t>Szymon Mazur</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -445,7 +398,64 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Hanna Maciejewska</t>
+  </si>
+  <si>
+    <t>Adam Wiśniewski</t>
+  </si>
+  <si>
+    <t>Mikołaj Wojciechowski</t>
+  </si>
+  <si>
+    <t>Hanna Wójcik</t>
+  </si>
+  <si>
+    <t>Julia Lis</t>
+  </si>
+  <si>
+    <t>Antoni Mazur</t>
+  </si>
+  <si>
+    <t>Emilia Malinowska</t>
+  </si>
+  <si>
+    <t>Hanna Urbaniak</t>
+  </si>
+  <si>
+    <t>Jan Kowalczyk</t>
+  </si>
+  <si>
+    <t>Hanna Wilk</t>
+  </si>
+  <si>
+    <t>Anna Urbaniak</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Maja Piekarska</t>
+  </si>
+  <si>
+    <t>Filip Kozłowski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -499,151 +509,154 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
     <t>styczeń</t>
   </si>
   <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -715,7 +728,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,12 +751,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -785,13 +792,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1098,7 +1104,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1203,19 +1209,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
       </c>
       <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1224,16 +1230,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>4</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
       </c>
       <c r="F18" s="3">
         <v>5</v>
@@ -1245,19 +1251,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
         <v>5</v>
       </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1266,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
@@ -1287,19 +1293,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1308,19 +1314,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
         <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1329,19 +1335,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1353,16 +1359,16 @@
         <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
       </c>
       <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
         <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>4</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1371,19 +1377,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
       </c>
       <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
         <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1392,19 +1398,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>5</v>
       </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1413,19 +1419,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
       </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1434,19 +1440,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1459,6 +1465,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1492,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1512,7 +1524,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1522,29 +1534,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1552,99 +1564,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2.2</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>24.1</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>23.9</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.1</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.7</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4.4</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.7</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3.8</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.2</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.7</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1661,10 +1673,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1677,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1702,27 +1714,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1730,85 +1742,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>21.88</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>23.26</v>
       </c>
       <c r="C15" s="3">
-        <v>46</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>9.5</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>18.1</v>
       </c>
       <c r="C16" s="3">
-        <v>46</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>10.8</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>18.21</v>
       </c>
       <c r="C17" s="3">
-        <v>13</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>6.8</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5.49</v>
       </c>
       <c r="C18" s="3">
-        <v>42</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>14.02</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>9.32</v>
       </c>
       <c r="C19" s="3">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1817,8 +1829,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1826,85 +1838,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>7.62</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2.82</v>
       </c>
       <c r="C24" s="3">
-        <v>10</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>4.24</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>17.93</v>
       </c>
       <c r="C25" s="3">
-        <v>40</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>17.14</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>18.35</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>27.02</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2.95</v>
       </c>
       <c r="C27" s="3">
-        <v>22</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>15.69</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>6.97</v>
       </c>
       <c r="C28" s="3">
-        <v>34</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1913,8 +1925,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1922,89 +1934,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>10.37</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1.39</v>
       </c>
       <c r="C33" s="3">
-        <v>5</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>18.23</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>18.53</v>
       </c>
       <c r="C34" s="3">
-        <v>27</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>20.49</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>26.24</v>
       </c>
       <c r="C35" s="3">
-        <v>43</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>10.13</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>27.53</v>
       </c>
       <c r="C36" s="3">
         <v>13</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>30.030000000000001</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>26.39</v>
       </c>
       <c r="C37" s="3">
-        <v>11</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2024,10 +2044,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L21"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2047,90 +2067,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
         <v>4</v>
@@ -2139,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
@@ -2159,31 +2179,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13" s="3">
         <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2191,28 +2211,28 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>2</v>
@@ -2223,31 +2243,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
         <v>6</v>
       </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
       <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>6</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2255,31 +2275,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
         <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>6</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>2</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2287,136 +2307,72 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3">
         <v>4</v>
       </c>
       <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
         <v>4</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
-      </c>
-      <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3">
-        <v>6</v>
-      </c>
-      <c r="I19" s="3">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>3</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2443,12 +2399,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2492,200 +2448,200 @@
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>5946</v>
+      <c r="B11" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12561</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2881</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9929</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>8100</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C13" s="8">
+        <v>13879</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3540</v>
+        <v>108</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7362</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>14271</v>
+        <v>109</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13856</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11123</v>
+        <v>110</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C16" s="8">
+        <v>13952</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>12167</v>
+        <v>111</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3994</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6392</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2986</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5214</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C19" s="8">
+        <v>12935</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11139</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4424</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6578</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2571</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>11380</v>
+        <v>116</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C22" s="8">
+        <v>14835</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>12910</v>
+        <v>117</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C23" s="8">
+        <v>9712</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7">
-        <v>9118</v>
+        <v>118</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C24" s="8">
+        <v>11512</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="7">
-        <v>4158</v>
+        <v>119</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8608</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="7">
-        <v>7194</v>
+        <v>120</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C26" s="8">
+        <v>7514</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="17" t="s">
-        <v>137</v>
+      <c r="A29" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B32" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2702,10 +2658,221 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A10" sqref="A10:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="3">
+        <v>137</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3">
+        <v>129</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3">
+        <v>132</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="3">
+        <v>127</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3">
+        <v>143</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="3">
+        <v>141</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3">
+        <v>185</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3">
+        <v>165</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="3">
+        <v>155</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="3">
+        <v>132</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3">
+        <v>145</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="3">
+        <v>195</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="3">
+        <v>103</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="3">
+        <v>170</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="3">
+        <v>122</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="3">
+        <v>91</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2720,86 +2887,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>141</v>
+      <c r="A1" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2807,22 +2974,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="7">
-        <v>763</v>
-      </c>
-      <c r="E16" s="7">
-        <v>839</v>
+        <v>163</v>
+      </c>
+      <c r="D16" s="8">
+        <v>685</v>
+      </c>
+      <c r="E16" s="8">
+        <v>959</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2830,22 +2997,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1205</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1663</v>
+        <v>167</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1449</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1768</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2853,22 +3020,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1108</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1440</v>
+        <v>170</v>
+      </c>
+      <c r="D18" s="8">
+        <v>539</v>
+      </c>
+      <c r="E18" s="8">
+        <v>733</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2876,22 +3043,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1052</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1273</v>
+        <v>173</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1377</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1639</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2899,22 +3066,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>753</v>
-      </c>
-      <c r="E20" s="7">
-        <v>881</v>
+        <v>176</v>
+      </c>
+      <c r="D20" s="8">
+        <v>914</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1079</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2922,22 +3089,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="7">
-        <v>592</v>
-      </c>
-      <c r="E21" s="7">
-        <v>764</v>
+        <v>180</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1294</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1618</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2945,22 +3112,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="7">
-        <v>676</v>
-      </c>
-      <c r="E22" s="7">
-        <v>757</v>
+        <v>183</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1258</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1409</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2968,22 +3135,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1408</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1844</v>
+        <v>186</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1391</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1614</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2991,22 +3158,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1338</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1699</v>
+        <v>188</v>
+      </c>
+      <c r="D24" s="8">
+        <v>907</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1143</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3014,22 +3181,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="7">
-        <v>609</v>
-      </c>
-      <c r="E25" s="7">
-        <v>792</v>
+        <v>190</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1080</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1274</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3037,22 +3204,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1336</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1576</v>
+        <v>192</v>
+      </c>
+      <c r="D26" s="8">
+        <v>827</v>
+      </c>
+      <c r="E26" s="8">
+        <v>935</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3060,22 +3227,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1358</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1847</v>
+        <v>194</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1045</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1442</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3083,22 +3250,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1248</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1448</v>
+        <v>186</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1349</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1659</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3106,22 +3273,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1280</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1485</v>
+      <c r="D29" s="8">
+        <v>1101</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1211</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3129,22 +3296,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1141</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1518</v>
+        <v>200</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1131</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1312</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3152,22 +3319,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1277</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1673</v>
+        <v>183</v>
+      </c>
+      <c r="D31" s="8">
+        <v>710</v>
+      </c>
+      <c r="E31" s="8">
+        <v>888</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3175,22 +3342,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1170</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1509</v>
+        <v>183</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1399</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1903</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3198,22 +3365,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1404</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1727</v>
+        <v>188</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1359</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1672</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3221,22 +3388,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1296</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1788</v>
+        <v>203</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1242</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1726</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3244,22 +3411,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1452</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1917</v>
+        <v>204</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1294</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1592</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3267,22 +3434,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1228</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1609</v>
+        <v>206</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1320</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1610</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3290,22 +3457,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1180</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1416</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="7">
-        <v>1187</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1389</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3313,22 +3480,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1278</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1623</v>
+        <v>208</v>
+      </c>
+      <c r="D38" s="8">
+        <v>922</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1106</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3336,22 +3503,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1112</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1535</v>
+        <v>208</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1298</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1519</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3359,58 +3526,150 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="8">
+        <v>564</v>
+      </c>
+      <c r="E40" s="8">
+        <v>773</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1381</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1602</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="7">
-        <v>856</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1181</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>196</v>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1473</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1738</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
-        <v>137</v>
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="8">
+        <v>569</v>
+      </c>
+      <c r="E43" s="8">
+        <v>717</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>209</v>
-      </c>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>210</v>
-      </c>
-      <c r="B46" s="6"/>
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1460</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1752</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>211</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="A47" s="16" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>212</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
